--- a/assets/SourceFile/tinhluong_t05_2022.xlsx
+++ b/assets/SourceFile/tinhluong_t05_2022.xlsx
@@ -513,10 +513,10 @@
         <v>700000</v>
       </c>
       <c r="G2" s="0">
-        <v>500000</v>
+        <v>50000</v>
       </c>
       <c r="H2" s="0">
-        <v>5000000</v>
+        <v>5450000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -539,10 +539,10 @@
         <v>500000</v>
       </c>
       <c r="G3" s="0">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>11526923.076923</v>
+        <v>11576923.076923</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -562,13 +562,13 @@
         <v>500000</v>
       </c>
       <c r="F4" s="0">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="H4" s="0">
-        <v>10565384.615385</v>
+        <v>9965384.6153846</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -588,13 +588,13 @@
         <v>500000</v>
       </c>
       <c r="F5" s="0">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>11496153.846154</v>
+        <v>10596153.846154</v>
       </c>
     </row>
     <row r="6" spans="1:8">

--- a/assets/SourceFile/tinhluong_t05_2022.xlsx
+++ b/assets/SourceFile/tinhluong_t05_2022.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Thực lĩnh</t>
-  </si>
-  <si>
-    <t>Đào Đức Tuấn</t>
   </si>
   <si>
     <t>Hà Quốc Huy</t>
@@ -449,7 +446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,68 +492,68 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="0">
-        <v>4500000</v>
+        <v>10576923.076923</v>
       </c>
       <c r="E2" s="0">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="F2" s="0">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="G2" s="0">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>5450000</v>
+        <v>11576923.076923</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0">
-        <v>10576923.076923</v>
+        <v>9615384.6153846</v>
       </c>
       <c r="E3" s="0">
         <v>500000</v>
       </c>
       <c r="F3" s="0">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H3" s="0">
-        <v>11576923.076923</v>
+        <v>10015384.615385</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="0">
-        <v>9615384.6153846</v>
+        <v>10096153.846154</v>
       </c>
       <c r="E4" s="0">
         <v>500000</v>
@@ -565,24 +562,24 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>9965384.6153846</v>
+        <v>10596153.846154</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="0">
-        <v>10096153.846154</v>
+        <v>11057692.307692</v>
       </c>
       <c r="E5" s="0">
         <v>500000</v>
@@ -594,38 +591,38 @@
         <v>0</v>
       </c>
       <c r="H5" s="0">
-        <v>10596153.846154</v>
+        <v>11557692.307692</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="0">
-        <v>11057692.307692</v>
+        <v>12500000</v>
       </c>
       <c r="E6" s="0">
         <v>500000</v>
       </c>
       <c r="F6" s="0">
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>11557692.307692</v>
+        <v>14700000</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
@@ -634,10 +631,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="0">
-        <v>12500000</v>
+        <v>4500000</v>
       </c>
       <c r="E7" s="0">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="F7" s="0">
         <v>700000</v>
@@ -646,64 +643,64 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>13700000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="0">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D8" s="0">
-        <v>4500000</v>
+        <v>2403846.1538462</v>
       </c>
       <c r="E8" s="0">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="F8" s="0">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>5500000</v>
+        <v>2903846.1538462</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="0">
-        <v>11538461.538462</v>
+        <v>12500000</v>
       </c>
       <c r="E9" s="0">
         <v>500000</v>
       </c>
       <c r="F9" s="0">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G9" s="0">
         <v>0</v>
       </c>
       <c r="H9" s="0">
-        <v>12038461.538462</v>
+        <v>13700000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>16</v>
@@ -712,10 +709,10 @@
         <v>26</v>
       </c>
       <c r="D10" s="0">
-        <v>12500000</v>
+        <v>4500000</v>
       </c>
       <c r="E10" s="0">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="F10" s="0">
         <v>700000</v>
@@ -724,142 +721,142 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>13700000</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="0">
-        <v>4500000</v>
+        <v>3807692.3076923</v>
       </c>
       <c r="E11" s="0">
         <v>300000</v>
       </c>
       <c r="F11" s="0">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0">
         <v>0</v>
       </c>
       <c r="H11" s="0">
-        <v>5500000</v>
+        <v>4107692.3076923</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D12" s="0">
-        <v>3807692.3076923</v>
+        <v>8000000</v>
       </c>
       <c r="E12" s="0">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="F12" s="0">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>4107692.3076923</v>
+        <v>9100000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" s="0">
-        <v>8000000</v>
+        <v>6769230.7692308</v>
       </c>
       <c r="E13" s="0">
         <v>400000</v>
       </c>
       <c r="F13" s="0">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0">
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>9100000</v>
+        <v>7169230.7692308</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0">
-        <v>6769230.7692308</v>
+        <v>7384615.3846154</v>
       </c>
       <c r="E14" s="0">
         <v>400000</v>
       </c>
       <c r="F14" s="0">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>7169230.7692308</v>
+        <v>8284615.3846154</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" s="0">
-        <v>7384615.3846154</v>
+        <v>4500000</v>
       </c>
       <c r="E15" s="0">
-        <v>400000</v>
+        <v>300000</v>
       </c>
       <c r="F15" s="0">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G15" s="0">
         <v>0</v>
       </c>
       <c r="H15" s="0">
-        <v>7784615.3846154</v>
+        <v>5500000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>22</v>
@@ -868,10 +865,10 @@
         <v>26</v>
       </c>
       <c r="D16" s="0">
-        <v>4500000</v>
+        <v>8000000</v>
       </c>
       <c r="E16" s="0">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="F16" s="0">
         <v>700000</v>
@@ -880,12 +877,12 @@
         <v>0</v>
       </c>
       <c r="H16" s="0">
-        <v>5500000</v>
+        <v>9100000</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>23</v>
@@ -894,10 +891,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="0">
-        <v>8000000</v>
+        <v>12500000</v>
       </c>
       <c r="E17" s="0">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="F17" s="0">
         <v>700000</v>
@@ -906,12 +903,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="0">
-        <v>9100000</v>
+        <v>13700000</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>24</v>
@@ -920,10 +917,10 @@
         <v>26</v>
       </c>
       <c r="D18" s="0">
-        <v>12500000</v>
+        <v>8000000</v>
       </c>
       <c r="E18" s="0">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="F18" s="0">
         <v>700000</v>
@@ -932,84 +929,58 @@
         <v>0</v>
       </c>
       <c r="H18" s="0">
-        <v>13700000</v>
+        <v>9100000</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D19" s="0">
-        <v>8000000</v>
+        <v>6461538.4615385</v>
       </c>
       <c r="E19" s="0">
         <v>400000</v>
       </c>
       <c r="F19" s="0">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G19" s="0">
         <v>0</v>
       </c>
       <c r="H19" s="0">
-        <v>9100000</v>
+        <v>6861538.4615385</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D20" s="0">
-        <v>6461538.4615385</v>
+        <v>1923076.9230769</v>
       </c>
       <c r="E20" s="0">
-        <v>400000</v>
+        <v>200000</v>
       </c>
       <c r="F20" s="0">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G20" s="0">
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>6861538.4615385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="0">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="0">
-        <v>25</v>
-      </c>
-      <c r="D21" s="0">
-        <v>1923076.9230769</v>
-      </c>
-      <c r="E21" s="0">
-        <v>200000</v>
-      </c>
-      <c r="F21" s="0">
-        <v>700000</v>
-      </c>
-      <c r="G21" s="0">
-        <v>0</v>
-      </c>
-      <c r="H21" s="0">
         <v>2823076.9230769</v>
       </c>
     </row>
